--- a/testdata/testData.xlsx
+++ b/testdata/testData.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
-    <sheet name="testData" sheetId="1" r:id="rId1"/>
+    <sheet name="testDataSheet" sheetId="1" r:id="rId1"/>
     <sheet name="userData" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -378,7 +378,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/testdata/testData.xlsx
+++ b/testdata/testData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Frameworks\Selenium_Training_Code\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Frameworks\POMFramework\Selenium_Training_Code\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Locator</t>
   </si>
@@ -49,6 +49,21 @@
   </si>
   <si>
     <t>Password</t>
+  </si>
+  <si>
+    <t>MyWishList1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First WishList </t>
+  </si>
+  <si>
+    <t>MyWishList2</t>
+  </si>
+  <si>
+    <t>Second Wishlist</t>
+  </si>
+  <si>
+    <t>Third Wishlist</t>
   </si>
 </sst>
 </file>
@@ -375,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,6 +424,30 @@
       </c>
       <c r="B3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/testData.xlsx
+++ b/testdata/testData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Frameworks\Selenium_Training_Code\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Frameworks\POMFramework\Selenium_Training_Code\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Locator</t>
   </si>
@@ -49,6 +49,24 @@
   </si>
   <si>
     <t>Password</t>
+  </si>
+  <si>
+    <t>MyWishList1</t>
+  </si>
+  <si>
+    <t>New WishList1</t>
+  </si>
+  <si>
+    <t>MyWishList2</t>
+  </si>
+  <si>
+    <t>New WishList2</t>
+  </si>
+  <si>
+    <t>MyWishList3</t>
+  </si>
+  <si>
+    <t>New WishList3</t>
   </si>
 </sst>
 </file>
@@ -375,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,6 +427,30 @@
       </c>
       <c r="B3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/testData.xlsx
+++ b/testdata/testData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="testDataSheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>Locator</t>
   </si>
@@ -67,13 +67,22 @@
   </si>
   <si>
     <t>New WishList3</t>
+  </si>
+  <si>
+    <t>neeraj2016@gmail.com</t>
+  </si>
+  <si>
+    <t>Password1</t>
+  </si>
+  <si>
+    <t>neeraj@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,6 +94,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -107,14 +124,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -395,8 +415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,15 +481,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -481,8 +501,55 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A6" r:id="rId4"/>
+    <hyperlink ref="A5" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/testdata/testData.xlsx
+++ b/testdata/testData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="testDataSheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Locator</t>
   </si>
@@ -69,13 +69,40 @@
     <t>New WishList3</t>
   </si>
   <si>
-    <t>neeraj2016@gmail.com</t>
-  </si>
-  <si>
     <t>Password1</t>
   </si>
   <si>
-    <t>neeraj@gmail.com</t>
+    <t>neeraj2016_1@gmail.com</t>
+  </si>
+  <si>
+    <t>neeraj2016_2@gmail.com</t>
+  </si>
+  <si>
+    <t>neeraj2016_3@gmail.com</t>
+  </si>
+  <si>
+    <t>neeraj2016_4@gmail.com</t>
+  </si>
+  <si>
+    <t>neeraj2016_5@gmail.com</t>
+  </si>
+  <si>
+    <t>Password2</t>
+  </si>
+  <si>
+    <t>Password3</t>
+  </si>
+  <si>
+    <t>Password4</t>
+  </si>
+  <si>
+    <t>Password5</t>
+  </si>
+  <si>
+    <t>Neeraj Bhatngar</t>
+  </si>
+  <si>
+    <t>name of user to be used in application</t>
   </si>
 </sst>
 </file>
@@ -413,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,6 +500,14 @@
         <v>13</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -483,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,42 +538,42 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
         <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/testData.xlsx
+++ b/testdata/testData.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="testDataSheet" sheetId="1" r:id="rId1"/>
-    <sheet name="userData" sheetId="2" r:id="rId2"/>
+    <sheet name="itemTitleSheet" sheetId="3" r:id="rId2"/>
+    <sheet name="userData" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>Locator</t>
   </si>
@@ -36,9 +37,6 @@
     <t>WOMEN</t>
   </si>
   <si>
-    <t>T-shirts</t>
-  </si>
-  <si>
     <t>tooltip of Women link on Woemn paage.</t>
   </si>
   <si>
@@ -103,6 +101,30 @@
   </si>
   <si>
     <t>name of user to be used in application</t>
+  </si>
+  <si>
+    <t>Do you really want to delete this wishlist ?</t>
+  </si>
+  <si>
+    <t>Text on alert message when wishlist is deleted.</t>
+  </si>
+  <si>
+    <t>T-SHIRTS</t>
+  </si>
+  <si>
+    <t>Faded Short Sleeve T-shirts</t>
+  </si>
+  <si>
+    <t>Tshirt title. Will be used to check if this Tshirt is added in shopping cart or not.</t>
+  </si>
+  <si>
+    <t>Printed Chiffon Dress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summer Dress title. </t>
+  </si>
+  <si>
+    <t>itemTitle</t>
   </si>
 </sst>
 </file>
@@ -155,10 +177,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -440,20 +468,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="54" style="4" customWidth="1"/>
     <col min="2" max="2" width="70.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -461,51 +489,75 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -516,10 +568,49 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,50 +621,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
